--- a/data/segmentation_result/TK_1_average.xlsx
+++ b/data/segmentation_result/TK_1_average.xlsx
@@ -82,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,7 +129,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +438,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,18 +587,9 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="4">
-        <f>AVERAGE(C2:C8)</f>
-        <v>0.8665162778637846</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" ref="D9:E9" si="0">AVERAGE(D2:D8)</f>
-        <v>0.90034251487920858</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.88061125223636549</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
